--- a/Example/Excel2Unity/Assets/UserLevel.xlsx
+++ b/Example/Excel2Unity/Assets/UserLevel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="8955"/>
+    <workbookView windowWidth="15960" windowHeight="8535"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,19 +18,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>等级</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>技能</t>
-  </si>
-  <si>
-    <t>登场时间</t>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
   <si>
     <t>李逍遥</t>
@@ -83,10 +83,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -498,7 +498,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="4"/>
